--- a/6月/途礼商城/开发环境/基础测试/途礼商城  (订单结算-王倩）.xlsx
+++ b/6月/途礼商城/开发环境/基础测试/途礼商城  (订单结算-王倩）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="未登录（订单结算）" sheetId="2" r:id="rId1"/>
@@ -1112,10 +1112,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1337,7 +1337,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1356,7 +1356,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
@@ -1398,7 +1398,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1436,7 +1436,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2090,10 +2090,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
